--- a/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
+++ b/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="216">
   <si>
     <t>API Mode</t>
   </si>
@@ -664,6 +664,33 @@
   </si>
   <si>
     <t>RMA-WZGJ-1-3</t>
+  </si>
+  <si>
+    <t>RMA-HT43-001</t>
+  </si>
+  <si>
+    <t>RMA-HT43-002</t>
+  </si>
+  <si>
+    <t>RMA-HT43-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLEkAAM</t>
+  </si>
+  <si>
+    <t>RMA-HT43-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLElAAM</t>
+  </si>
+  <si>
+    <t>RMA-HT43-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLEmAAM</t>
+  </si>
+  <si>
+    <t>RMA-HT43-1-3</t>
   </si>
 </sst>
 </file>
@@ -673,7 +700,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="183" x14ac:knownFonts="1">
+  <fonts count="195" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -693,6 +720,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1783,7 +1882,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="91">
+  <borders count="97">
     <border>
       <left/>
       <right/>
@@ -2061,11 +2160,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="195">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -2247,8 +2364,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="88" fillId="0" fontId="178" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="179" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="89" fillId="0" fontId="180" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="182" fillId="0" borderId="90" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="181" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="90" fillId="0" fontId="182" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="183" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="91" fillId="0" fontId="184" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="185" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="92" fillId="0" fontId="186" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="187" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="93" fillId="0" fontId="188" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="189" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="94" fillId="0" fontId="190" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="191" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="95" fillId="0" fontId="192" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="194" fillId="0" borderId="96" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3117,11 +3246,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.30859375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.5234375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.6796875" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -3171,10 +3300,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="F2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -3183,7 +3312,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3200,10 +3329,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F3" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -3212,7 +3341,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3229,10 +3358,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="F4" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -3241,7 +3370,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
+++ b/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="225">
   <si>
     <t>API Mode</t>
   </si>
@@ -691,6 +691,33 @@
   </si>
   <si>
     <t>RMA-HT43-1-3</t>
+  </si>
+  <si>
+    <t>RMA-002X-001</t>
+  </si>
+  <si>
+    <t>RMA-002X-002</t>
+  </si>
+  <si>
+    <t>RMA-002X-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLQRAA2</t>
+  </si>
+  <si>
+    <t>RMA-002X-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLQSAA2</t>
+  </si>
+  <si>
+    <t>RMA-002X-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLQTAA2</t>
+  </si>
+  <si>
+    <t>RMA-002X-1-3</t>
   </si>
 </sst>
 </file>
@@ -700,7 +727,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="195" x14ac:knownFonts="1">
+  <fonts count="207" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -720,6 +747,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1882,7 +1981,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="97">
+  <borders count="103">
     <border>
       <left/>
       <right/>
@@ -2178,11 +2277,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="207">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -2376,8 +2493,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="94" fillId="0" fontId="190" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="191" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="95" fillId="0" fontId="192" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="194" fillId="0" borderId="96" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="193" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="96" fillId="0" fontId="194" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="195" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="97" fillId="0" fontId="196" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="197" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="98" fillId="0" fontId="198" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="199" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="99" fillId="0" fontId="200" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="201" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="100" fillId="0" fontId="202" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="203" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="101" fillId="0" fontId="204" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="206" fillId="0" borderId="102" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3246,11 +3375,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.30859375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.12109375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.6796875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.75390625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -3300,10 +3429,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F2" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -3312,7 +3441,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3329,10 +3458,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="F3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -3341,7 +3470,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3358,10 +3487,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -3370,7 +3499,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
+++ b/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="252">
   <si>
     <t>API Mode</t>
   </si>
@@ -718,6 +718,87 @@
   </si>
   <si>
     <t>RMA-002X-1-3</t>
+  </si>
+  <si>
+    <t>RMA-33A5-001</t>
+  </si>
+  <si>
+    <t>RMA-33A5-002</t>
+  </si>
+  <si>
+    <t>RMA-33A5-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLS3AAM</t>
+  </si>
+  <si>
+    <t>RMA-33A5-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLS4AAM</t>
+  </si>
+  <si>
+    <t>RMA-33A5-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLS5AAM</t>
+  </si>
+  <si>
+    <t>RMA-33A5-1-3</t>
+  </si>
+  <si>
+    <t>RMA-GCIB-001</t>
+  </si>
+  <si>
+    <t>RMA-GCIB-002</t>
+  </si>
+  <si>
+    <t>RMA-GCIB-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSXAA2</t>
+  </si>
+  <si>
+    <t>RMA-GCIB-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSYAA2</t>
+  </si>
+  <si>
+    <t>RMA-GCIB-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSZAA2</t>
+  </si>
+  <si>
+    <t>RMA-GCIB-1-3</t>
+  </si>
+  <si>
+    <t>RMA-0TWP-001</t>
+  </si>
+  <si>
+    <t>RMA-0TWP-002</t>
+  </si>
+  <si>
+    <t>RMA-0TWP-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSrAAM</t>
+  </si>
+  <si>
+    <t>RMA-0TWP-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSsAAM</t>
+  </si>
+  <si>
+    <t>RMA-0TWP-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLStAAM</t>
+  </si>
+  <si>
+    <t>RMA-0TWP-1-3</t>
   </si>
 </sst>
 </file>
@@ -727,7 +808,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="207" x14ac:knownFonts="1">
+  <fonts count="243" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,6 +828,222 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1981,7 +2278,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="103">
+  <borders count="121">
     <border>
       <left/>
       <right/>
@@ -2295,11 +2592,65 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="243">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -2505,8 +2856,44 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="100" fillId="0" fontId="202" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="203" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="101" fillId="0" fontId="204" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="206" fillId="0" borderId="102" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="205" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="102" fillId="0" fontId="206" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="207" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="103" fillId="0" fontId="208" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="209" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="104" fillId="0" fontId="210" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="211" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="105" fillId="0" fontId="212" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="213" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="106" fillId="0" fontId="214" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="215" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="107" fillId="0" fontId="216" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="217" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="108" fillId="0" fontId="218" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="219" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="109" fillId="0" fontId="220" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="221" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="110" fillId="0" fontId="222" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="223" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="111" fillId="0" fontId="224" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="225" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="112" fillId="0" fontId="226" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="227" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="113" fillId="0" fontId="228" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="229" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="114" fillId="0" fontId="230" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="231" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="115" fillId="0" fontId="232" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="233" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="116" fillId="0" fontId="234" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="235" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="117" fillId="0" fontId="236" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="237" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="118" fillId="0" fontId="238" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="239" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="119" fillId="0" fontId="240" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="242" fillId="0" borderId="120" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3375,11 +3762,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.12109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.9140625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.75390625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.71875" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -3429,10 +3816,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="F2" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -3441,7 +3828,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3458,10 +3845,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="F3" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -3470,7 +3857,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3487,10 +3874,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="F4" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -3499,7 +3886,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
